--- a/src/main/webapp/upload/IMPORT_BUS_DRIVER_INFO.xlsx
+++ b/src/main/webapp/upload/IMPORT_BUS_DRIVER_INFO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,37 +30,25 @@
     <t>车型类别（巴士xx座）</t>
   </si>
   <si>
-    <r>
-      <t>司机身份证号(</t>
+    <t>驾照类型</t>
+  </si>
+  <si>
+    <t>驾驶证号</t>
+  </si>
+  <si>
+    <t>司机身份证号</t>
+  </si>
+  <si>
+    <t>道路运输从业资格证编号</t>
+  </si>
+  <si>
+    <r>
+      <t>司机手机号（</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>校验格式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>司机手机号（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -76,6 +64,7 @@
       </rPr>
       <t>）</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -84,12 +73,12 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color indexed="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>21≤司机年龄≤60</t>
+      <t>21≤司机年龄≤60，格式：yyyy-MM-dd</t>
     </r>
     <r>
       <rPr>
@@ -100,13 +89,7 @@
       </rPr>
       <t>）</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>驾照类型</t>
-  </si>
-  <si>
-    <t>驾驶证号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -115,12 +98,12 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color indexed="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>驾龄≥3</t>
+      <t>驾龄≥3，格式：yyyy-MM-dd</t>
     </r>
     <r>
       <rPr>
@@ -131,18 +114,14 @@
       </rPr>
       <t>）</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>道路运输从业资格证编号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,13 +149,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -494,7 +467,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -502,11 +475,11 @@
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="5.25" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="3"/>
-    <col min="9" max="9" width="24.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.5" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
@@ -522,25 +495,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
